--- a/simulated_data/10nodes_50len_trial7.xlsx
+++ b/simulated_data/10nodes_50len_trial7.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.385036631016602</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.385036625042556</v>
+        <v>43.375</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>21.825</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21.885</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23.735</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18.985</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29.09</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.966511759807467</v>
+        <v>43.375</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.9665118850036</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.415</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>39.14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="H3" t="n">
+        <v>27.76</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.635</v>
+      </c>
+      <c r="J3" t="n">
+        <v>42.91</v>
+      </c>
+      <c r="K3" t="n">
+        <v>35.19</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-19.20297954569773</v>
+        <v>23.76</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.20297952191774</v>
+        <v>39.415</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>45.525</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.605</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20.375</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.275</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41.155</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.97819793456843</v>
+        <v>28.04</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.978198055846051</v>
+        <v>14.75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.525</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45.015</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="H5" t="n">
+        <v>43.275</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36.40000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>38.57</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-22.13313958073871</v>
+        <v>21.825</v>
       </c>
       <c r="C6" t="n">
-        <v>-22.13313956577217</v>
+        <v>39.14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.605</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45.015</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.605</v>
+      </c>
+      <c r="I6" t="n">
+        <v>30.745</v>
+      </c>
+      <c r="J6" t="n">
+        <v>33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-11.00833752963905</v>
+        <v>21.885</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.0083375975266</v>
+        <v>19.73</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.375</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16.025</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>42.53</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-19.02536182504995</v>
+        <v>18.65</v>
       </c>
       <c r="C8" t="n">
-        <v>-19.02536183069888</v>
+        <v>27.76</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.275</v>
+      </c>
+      <c r="E8" t="n">
+        <v>43.275</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.605</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16.025</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="J8" t="n">
+        <v>36.675</v>
+      </c>
+      <c r="K8" t="n">
+        <v>47.39</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.663240101212613</v>
+        <v>23.735</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.663240158580217</v>
+        <v>16.635</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30.745</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="H9" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22.905</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6206846120029484</v>
+        <v>18.985</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6206846301900927</v>
+        <v>42.91</v>
+      </c>
+      <c r="D10" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>36.40000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>33</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="H10" t="n">
+        <v>36.675</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.44</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>29.09</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>35.19</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41.155</v>
+      </c>
+      <c r="E11" t="n">
+        <v>38.57</v>
+      </c>
+      <c r="F11" t="n">
+        <v>39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="H11" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22.905</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.55</v>
+        <v>27.37</v>
       </c>
       <c r="D2" t="n">
-        <v>20.07</v>
+        <v>29.85</v>
       </c>
       <c r="E2" t="n">
-        <v>36.67</v>
+        <v>29.12</v>
       </c>
       <c r="F2" t="n">
-        <v>18.03</v>
+        <v>28.12</v>
       </c>
       <c r="G2" t="n">
-        <v>22.99</v>
+        <v>20.74</v>
       </c>
       <c r="H2" t="n">
-        <v>21.42</v>
+        <v>22.2</v>
       </c>
       <c r="I2" t="n">
-        <v>19.58</v>
+        <v>10.35</v>
       </c>
       <c r="J2" t="n">
-        <v>16.04</v>
+        <v>11.86</v>
       </c>
       <c r="K2" t="n">
-        <v>24.84</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.55</v>
+        <v>27.37</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>37.87</v>
+        <v>39.25</v>
       </c>
       <c r="E3" t="n">
-        <v>11.02</v>
+        <v>9.31</v>
       </c>
       <c r="F3" t="n">
-        <v>38.88</v>
+        <v>40.21</v>
       </c>
       <c r="G3" t="n">
-        <v>15.95</v>
+        <v>17.98</v>
       </c>
       <c r="H3" t="n">
-        <v>32.68</v>
+        <v>35.55</v>
       </c>
       <c r="I3" t="n">
-        <v>19.98</v>
+        <v>17.64</v>
       </c>
       <c r="J3" t="n">
-        <v>40.32</v>
+        <v>39.16</v>
       </c>
       <c r="K3" t="n">
-        <v>41.89</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.07</v>
+        <v>29.85</v>
       </c>
       <c r="C4" t="n">
-        <v>37.87</v>
+        <v>39.25</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.55</v>
+        <v>32.91</v>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>3.66</v>
       </c>
       <c r="G4" t="n">
-        <v>22.56</v>
+        <v>21.27</v>
       </c>
       <c r="H4" t="n">
-        <v>5.69</v>
+        <v>7.92</v>
       </c>
       <c r="I4" t="n">
-        <v>28.99</v>
+        <v>28.18</v>
       </c>
       <c r="J4" t="n">
-        <v>35.73</v>
+        <v>34.19</v>
       </c>
       <c r="K4" t="n">
-        <v>44.02</v>
+        <v>42.15</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36.67</v>
+        <v>29.12</v>
       </c>
       <c r="C5" t="n">
-        <v>11.02</v>
+        <v>9.31</v>
       </c>
       <c r="D5" t="n">
-        <v>42.55</v>
+        <v>32.91</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>42.92</v>
+        <v>34.54</v>
       </c>
       <c r="G5" t="n">
-        <v>20.22</v>
+        <v>12.7</v>
       </c>
       <c r="H5" t="n">
-        <v>38.13</v>
+        <v>30.82</v>
       </c>
       <c r="I5" t="n">
-        <v>17.1</v>
+        <v>18.78</v>
       </c>
       <c r="J5" t="n">
-        <v>34.91</v>
+        <v>40.82</v>
       </c>
       <c r="K5" t="n">
-        <v>34.34</v>
+        <v>47.57</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.03</v>
+        <v>28.12</v>
       </c>
       <c r="C6" t="n">
-        <v>38.88</v>
+        <v>40.21</v>
       </c>
       <c r="D6" t="n">
-        <v>2.64</v>
+        <v>3.66</v>
       </c>
       <c r="E6" t="n">
-        <v>42.92</v>
+        <v>34.54</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>23.25</v>
+        <v>22.35</v>
       </c>
       <c r="H6" t="n">
-        <v>7.73</v>
+        <v>5.97</v>
       </c>
       <c r="I6" t="n">
-        <v>28.62</v>
+        <v>27.7</v>
       </c>
       <c r="J6" t="n">
-        <v>33.89</v>
+        <v>31.41</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35</v>
+        <v>39.24</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.99</v>
+        <v>20.74</v>
       </c>
       <c r="C7" t="n">
-        <v>15.95</v>
+        <v>17.98</v>
       </c>
       <c r="D7" t="n">
-        <v>22.56</v>
+        <v>21.27</v>
       </c>
       <c r="E7" t="n">
-        <v>20.22</v>
+        <v>12.7</v>
       </c>
       <c r="F7" t="n">
-        <v>23.25</v>
+        <v>22.35</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.92</v>
+        <v>18.19</v>
       </c>
       <c r="I7" t="n">
-        <v>11.91</v>
+        <v>12.2</v>
       </c>
       <c r="J7" t="n">
-        <v>30.38</v>
+        <v>31.32</v>
       </c>
       <c r="K7" t="n">
-        <v>35.08</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.42</v>
+        <v>22.2</v>
       </c>
       <c r="C8" t="n">
-        <v>32.68</v>
+        <v>35.55</v>
       </c>
       <c r="D8" t="n">
-        <v>5.69</v>
+        <v>7.92</v>
       </c>
       <c r="E8" t="n">
-        <v>38.13</v>
+        <v>30.82</v>
       </c>
       <c r="F8" t="n">
-        <v>7.73</v>
+        <v>5.97</v>
       </c>
       <c r="G8" t="n">
-        <v>17.92</v>
+        <v>18.19</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>26.02</v>
+        <v>21.97</v>
       </c>
       <c r="J8" t="n">
-        <v>36.05</v>
+        <v>26.34</v>
       </c>
       <c r="K8" t="n">
-        <v>43.71</v>
+        <v>34.36</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.58</v>
+        <v>10.35</v>
       </c>
       <c r="C9" t="n">
-        <v>19.98</v>
+        <v>17.64</v>
       </c>
       <c r="D9" t="n">
-        <v>28.99</v>
+        <v>28.18</v>
       </c>
       <c r="E9" t="n">
-        <v>17.1</v>
+        <v>18.78</v>
       </c>
       <c r="F9" t="n">
-        <v>28.62</v>
+        <v>27.7</v>
       </c>
       <c r="G9" t="n">
-        <v>11.91</v>
+        <v>12.2</v>
       </c>
       <c r="H9" t="n">
-        <v>26.02</v>
+        <v>21.97</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>20.51</v>
+        <v>22.16</v>
       </c>
       <c r="K9" t="n">
-        <v>23.66</v>
+        <v>28.79</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.04</v>
+        <v>11.86</v>
       </c>
       <c r="C10" t="n">
-        <v>40.32</v>
+        <v>39.16</v>
       </c>
       <c r="D10" t="n">
-        <v>35.73</v>
+        <v>34.19</v>
       </c>
       <c r="E10" t="n">
-        <v>34.91</v>
+        <v>40.82</v>
       </c>
       <c r="F10" t="n">
-        <v>33.89</v>
+        <v>31.41</v>
       </c>
       <c r="G10" t="n">
-        <v>30.38</v>
+        <v>31.32</v>
       </c>
       <c r="H10" t="n">
-        <v>36.05</v>
+        <v>26.34</v>
       </c>
       <c r="I10" t="n">
-        <v>20.51</v>
+        <v>22.16</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>9.08</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.84</v>
+        <v>18.54</v>
       </c>
       <c r="C11" t="n">
-        <v>41.89</v>
+        <v>44.8</v>
       </c>
       <c r="D11" t="n">
-        <v>44.02</v>
+        <v>42.15</v>
       </c>
       <c r="E11" t="n">
-        <v>34.34</v>
+        <v>47.57</v>
       </c>
       <c r="F11" t="n">
-        <v>42.35</v>
+        <v>39.24</v>
       </c>
       <c r="G11" t="n">
-        <v>35.08</v>
+        <v>38.93</v>
       </c>
       <c r="H11" t="n">
-        <v>43.71</v>
+        <v>34.36</v>
       </c>
       <c r="I11" t="n">
-        <v>23.66</v>
+        <v>28.79</v>
       </c>
       <c r="J11" t="n">
-        <v>9.08</v>
+        <v>8.15</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.4418475398859</v>
+        <v>-4.803462197871146</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.383915413141928</v>
+        <v>10.8943761371553</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-23.36698684642095</v>
+        <v>6.51682000298557</v>
       </c>
       <c r="C3" t="n">
-        <v>5.058205478724776</v>
+        <v>-14.02903953462062</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.649588170125833</v>
+        <v>23.08555798011938</v>
       </c>
       <c r="C4" t="n">
-        <v>-20.42358569346849</v>
+        <v>21.54852318980748</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-18.79485974298234</v>
+        <v>15.07975257158289</v>
       </c>
       <c r="C5" t="n">
-        <v>15.08662421899564</v>
+        <v>-10.37738829323956</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.999815687740356</v>
+        <v>20.18448729764488</v>
       </c>
       <c r="C6" t="n">
-        <v>-19.22038908855821</v>
+        <v>23.78439162426983</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-9.541886425290988</v>
+        <v>14.06376009968763</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.889272159758589</v>
+        <v>2.286428658436797</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.6938432086050179</v>
+        <v>15.23976154401121</v>
       </c>
       <c r="C8" t="n">
-        <v>-18.47336312330605</v>
+        <v>20.43798577270135</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.523965651029119</v>
+        <v>1.883522634841515</v>
       </c>
       <c r="C9" t="n">
-        <v>7.393880619240441</v>
+        <v>2.989743888703608</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.07676266410387</v>
+        <v>-11.09807998389141</v>
       </c>
       <c r="C10" t="n">
-        <v>13.43462273069195</v>
+        <v>20.94477872931967</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.75352781247245</v>
+        <v>-19.04504191381258</v>
       </c>
       <c r="C11" t="n">
-        <v>22.41719243058046</v>
+        <v>22.7581512319741</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>34.29</v>
+        <v>9.44</v>
       </c>
       <c r="D2" t="n">
-        <v>16.73</v>
+        <v>12.44</v>
       </c>
       <c r="E2" t="n">
-        <v>35.97</v>
+        <v>0.31</v>
       </c>
       <c r="F2" t="n">
-        <v>17.98</v>
+        <v>17.15</v>
       </c>
       <c r="G2" t="n">
-        <v>22.58</v>
+        <v>7.44</v>
       </c>
       <c r="H2" t="n">
-        <v>21.75</v>
+        <v>13.96</v>
       </c>
       <c r="I2" t="n">
-        <v>15.47</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>25.51</v>
+        <v>13.94</v>
       </c>
       <c r="K2" t="n">
-        <v>23.42</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.29</v>
+        <v>9.44</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.06</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>4.6</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>38.89</v>
+        <v>7.71</v>
       </c>
       <c r="G3" t="n">
-        <v>16.73</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>34.71</v>
+        <v>4.52</v>
       </c>
       <c r="I3" t="n">
-        <v>20.07</v>
+        <v>14.19</v>
       </c>
       <c r="J3" t="n">
-        <v>29.69</v>
+        <v>23.38</v>
       </c>
       <c r="K3" t="n">
-        <v>42.24</v>
+        <v>19.77</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.73</v>
+        <v>12.44</v>
       </c>
       <c r="C4" t="n">
-        <v>38.06</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>37.64</v>
+        <v>12.13</v>
       </c>
       <c r="F4" t="n">
-        <v>1.67</v>
+        <v>4.72</v>
       </c>
       <c r="G4" t="n">
-        <v>21.33</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>7.11</v>
+        <v>1.53</v>
       </c>
       <c r="I4" t="n">
-        <v>25.93</v>
+        <v>17.18</v>
       </c>
       <c r="J4" t="n">
-        <v>40.57</v>
+        <v>26.38</v>
       </c>
       <c r="K4" t="n">
-        <v>40.15</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35.97</v>
+        <v>0.31</v>
       </c>
       <c r="C5" t="n">
-        <v>4.6</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>37.64</v>
+        <v>12.13</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>38.06</v>
+        <v>16.85</v>
       </c>
       <c r="G5" t="n">
-        <v>15.89</v>
+        <v>7.13</v>
       </c>
       <c r="H5" t="n">
-        <v>33.46</v>
+        <v>13.66</v>
       </c>
       <c r="I5" t="n">
-        <v>23</v>
+        <v>5.05</v>
       </c>
       <c r="J5" t="n">
-        <v>33.88</v>
+        <v>14.25</v>
       </c>
       <c r="K5" t="n">
-        <v>46</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.98</v>
+        <v>17.15</v>
       </c>
       <c r="C6" t="n">
-        <v>38.89</v>
+        <v>7.71</v>
       </c>
       <c r="D6" t="n">
-        <v>1.67</v>
+        <v>4.72</v>
       </c>
       <c r="E6" t="n">
-        <v>38.06</v>
+        <v>16.85</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.17</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>6.69</v>
+        <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>27.18</v>
+        <v>21.9</v>
       </c>
       <c r="J6" t="n">
-        <v>41.82</v>
+        <v>31.1</v>
       </c>
       <c r="K6" t="n">
-        <v>41.4</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.58</v>
+        <v>7.44</v>
       </c>
       <c r="C7" t="n">
-        <v>16.73</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>21.33</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>15.89</v>
+        <v>7.13</v>
       </c>
       <c r="F7" t="n">
-        <v>22.17</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.98</v>
+        <v>6.53</v>
       </c>
       <c r="I7" t="n">
-        <v>15.47</v>
+        <v>12.18</v>
       </c>
       <c r="J7" t="n">
-        <v>31.78</v>
+        <v>21.38</v>
       </c>
       <c r="K7" t="n">
-        <v>39.31</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.75</v>
+        <v>13.96</v>
       </c>
       <c r="C8" t="n">
-        <v>34.71</v>
+        <v>4.52</v>
       </c>
       <c r="D8" t="n">
-        <v>7.11</v>
+        <v>1.53</v>
       </c>
       <c r="E8" t="n">
-        <v>33.46</v>
+        <v>13.66</v>
       </c>
       <c r="F8" t="n">
-        <v>6.69</v>
+        <v>3.19</v>
       </c>
       <c r="G8" t="n">
-        <v>17.98</v>
+        <v>6.53</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.18</v>
+        <v>18.71</v>
       </c>
       <c r="J8" t="n">
-        <v>42.66</v>
+        <v>27.91</v>
       </c>
       <c r="K8" t="n">
-        <v>44.75</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.47</v>
+        <v>4.75</v>
       </c>
       <c r="C9" t="n">
-        <v>20.07</v>
+        <v>14.19</v>
       </c>
       <c r="D9" t="n">
-        <v>25.93</v>
+        <v>17.18</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>5.05</v>
       </c>
       <c r="F9" t="n">
-        <v>27.18</v>
+        <v>21.9</v>
       </c>
       <c r="G9" t="n">
-        <v>15.47</v>
+        <v>12.18</v>
       </c>
       <c r="H9" t="n">
-        <v>27.18</v>
+        <v>18.71</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>16.73</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>24.26</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.51</v>
+        <v>13.94</v>
       </c>
       <c r="C10" t="n">
-        <v>29.69</v>
+        <v>23.38</v>
       </c>
       <c r="D10" t="n">
-        <v>40.57</v>
+        <v>26.38</v>
       </c>
       <c r="E10" t="n">
-        <v>33.88</v>
+        <v>14.25</v>
       </c>
       <c r="F10" t="n">
-        <v>41.82</v>
+        <v>31.1</v>
       </c>
       <c r="G10" t="n">
-        <v>31.78</v>
+        <v>21.38</v>
       </c>
       <c r="H10" t="n">
-        <v>42.66</v>
+        <v>27.91</v>
       </c>
       <c r="I10" t="n">
-        <v>16.73</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.64</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.42</v>
+        <v>10.33</v>
       </c>
       <c r="C11" t="n">
-        <v>42.24</v>
+        <v>19.77</v>
       </c>
       <c r="D11" t="n">
-        <v>40.15</v>
+        <v>22.77</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>10.64</v>
       </c>
       <c r="F11" t="n">
-        <v>41.4</v>
+        <v>27.49</v>
       </c>
       <c r="G11" t="n">
-        <v>39.31</v>
+        <v>17.77</v>
       </c>
       <c r="H11" t="n">
-        <v>44.75</v>
+        <v>24.3</v>
       </c>
       <c r="I11" t="n">
-        <v>24.26</v>
+        <v>5.59</v>
       </c>
       <c r="J11" t="n">
-        <v>14.64</v>
+        <v>3.61</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01176220965698178</v>
+        <v>-6.306407137508758</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3041992482783587</v>
+        <v>-6.30640713750893</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1607828401092441</v>
+        <v>-12.98136079039056</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4976684064159511</v>
+        <v>-12.9813607903917</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4016041755216267</v>
+        <v>-15.10024845360616</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.214715798465495</v>
+        <v>-15.10024845360534</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06623286179004877</v>
+        <v>-6.52245000263371</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5498780280552737</v>
+        <v>-6.522450002635534</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4368467270990222</v>
+        <v>-18.43584804452757</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.213725658108244</v>
+        <v>-18.43584804452672</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1321312342433507</v>
+        <v>-11.56489855494045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2215756070948374</v>
+        <v>-11.5648985549412</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4663006476531926</v>
+        <v>-16.17964959137606</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.05306349999249788</v>
+        <v>-16.17964959137609</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1760660623656713</v>
+        <v>-2.950858107200285</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01416817593596262</v>
+        <v>-2.950858107201011</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.557169783259482</v>
+        <v>3.554008511138881</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.09005897724530171</v>
+        <v>3.554008511139448</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5304011505067087</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4439513629000572</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.69</v>
+        <v>37.55</v>
       </c>
       <c r="D2" t="n">
-        <v>25.46</v>
+        <v>20.07</v>
       </c>
       <c r="E2" t="n">
-        <v>4.67</v>
+        <v>36.67</v>
       </c>
       <c r="F2" t="n">
-        <v>27.21</v>
+        <v>18.03</v>
       </c>
       <c r="G2" t="n">
-        <v>8.140000000000001</v>
+        <v>22.99</v>
       </c>
       <c r="H2" t="n">
-        <v>20.55</v>
+        <v>21.42</v>
       </c>
       <c r="I2" t="n">
-        <v>7.7</v>
+        <v>19.58</v>
       </c>
       <c r="J2" t="n">
-        <v>18.79</v>
+        <v>16.04</v>
       </c>
       <c r="K2" t="n">
-        <v>24.51</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.69</v>
+        <v>37.55</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.77</v>
+        <v>37.87</v>
       </c>
       <c r="E3" t="n">
-        <v>9.359999999999999</v>
+        <v>11.02</v>
       </c>
       <c r="F3" t="n">
-        <v>22.52</v>
+        <v>38.88</v>
       </c>
       <c r="G3" t="n">
-        <v>3.44</v>
+        <v>15.95</v>
       </c>
       <c r="H3" t="n">
-        <v>15.86</v>
+        <v>32.68</v>
       </c>
       <c r="I3" t="n">
-        <v>12.4</v>
+        <v>19.98</v>
       </c>
       <c r="J3" t="n">
-        <v>23.48</v>
+        <v>40.32</v>
       </c>
       <c r="K3" t="n">
-        <v>29.21</v>
+        <v>41.89</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.46</v>
+        <v>20.07</v>
       </c>
       <c r="C4" t="n">
-        <v>20.77</v>
+        <v>37.87</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>30.13</v>
+        <v>42.55</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>17.33</v>
+        <v>22.56</v>
       </c>
       <c r="H4" t="n">
-        <v>4.91</v>
+        <v>5.69</v>
       </c>
       <c r="I4" t="n">
-        <v>33.17</v>
+        <v>28.99</v>
       </c>
       <c r="J4" t="n">
-        <v>44.25</v>
+        <v>35.73</v>
       </c>
       <c r="K4" t="n">
-        <v>49.98</v>
+        <v>44.02</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.67</v>
+        <v>36.67</v>
       </c>
       <c r="C5" t="n">
-        <v>9.359999999999999</v>
+        <v>11.02</v>
       </c>
       <c r="D5" t="n">
-        <v>30.13</v>
+        <v>42.55</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>31.88</v>
+        <v>42.92</v>
       </c>
       <c r="G5" t="n">
-        <v>12.8</v>
+        <v>20.22</v>
       </c>
       <c r="H5" t="n">
-        <v>25.22</v>
+        <v>38.13</v>
       </c>
       <c r="I5" t="n">
-        <v>3.04</v>
+        <v>17.1</v>
       </c>
       <c r="J5" t="n">
-        <v>14.12</v>
+        <v>34.91</v>
       </c>
       <c r="K5" t="n">
-        <v>19.85</v>
+        <v>34.34</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.21</v>
+        <v>18.03</v>
       </c>
       <c r="C6" t="n">
-        <v>22.52</v>
+        <v>38.88</v>
       </c>
       <c r="D6" t="n">
-        <v>1.75</v>
+        <v>2.64</v>
       </c>
       <c r="E6" t="n">
-        <v>31.88</v>
+        <v>42.92</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>19.08</v>
+        <v>23.25</v>
       </c>
       <c r="H6" t="n">
-        <v>6.66</v>
+        <v>7.73</v>
       </c>
       <c r="I6" t="n">
-        <v>34.92</v>
+        <v>28.62</v>
       </c>
       <c r="J6" t="n">
-        <v>46</v>
+        <v>33.89</v>
       </c>
       <c r="K6" t="n">
-        <v>51.73</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.140000000000001</v>
+        <v>22.99</v>
       </c>
       <c r="C7" t="n">
-        <v>3.44</v>
+        <v>15.95</v>
       </c>
       <c r="D7" t="n">
-        <v>17.33</v>
+        <v>22.56</v>
       </c>
       <c r="E7" t="n">
-        <v>12.8</v>
+        <v>20.22</v>
       </c>
       <c r="F7" t="n">
-        <v>19.08</v>
+        <v>23.25</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>12.42</v>
+        <v>17.92</v>
       </c>
       <c r="I7" t="n">
-        <v>15.84</v>
+        <v>11.91</v>
       </c>
       <c r="J7" t="n">
-        <v>26.92</v>
+        <v>30.38</v>
       </c>
       <c r="K7" t="n">
-        <v>32.65</v>
+        <v>35.08</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.55</v>
+        <v>21.42</v>
       </c>
       <c r="C8" t="n">
-        <v>15.86</v>
+        <v>32.68</v>
       </c>
       <c r="D8" t="n">
-        <v>4.91</v>
+        <v>5.69</v>
       </c>
       <c r="E8" t="n">
-        <v>25.22</v>
+        <v>38.13</v>
       </c>
       <c r="F8" t="n">
-        <v>6.66</v>
+        <v>7.73</v>
       </c>
       <c r="G8" t="n">
-        <v>12.42</v>
+        <v>17.92</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>28.26</v>
+        <v>26.02</v>
       </c>
       <c r="J8" t="n">
-        <v>39.34</v>
+        <v>36.05</v>
       </c>
       <c r="K8" t="n">
-        <v>45.07</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.7</v>
+        <v>19.58</v>
       </c>
       <c r="C9" t="n">
-        <v>12.4</v>
+        <v>19.98</v>
       </c>
       <c r="D9" t="n">
-        <v>33.17</v>
+        <v>28.99</v>
       </c>
       <c r="E9" t="n">
-        <v>3.04</v>
+        <v>17.1</v>
       </c>
       <c r="F9" t="n">
-        <v>34.92</v>
+        <v>28.62</v>
       </c>
       <c r="G9" t="n">
-        <v>15.84</v>
+        <v>11.91</v>
       </c>
       <c r="H9" t="n">
-        <v>28.26</v>
+        <v>26.02</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.08</v>
+        <v>20.51</v>
       </c>
       <c r="K9" t="n">
-        <v>16.81</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.79</v>
+        <v>16.04</v>
       </c>
       <c r="C10" t="n">
-        <v>23.48</v>
+        <v>40.32</v>
       </c>
       <c r="D10" t="n">
-        <v>44.25</v>
+        <v>35.73</v>
       </c>
       <c r="E10" t="n">
-        <v>14.12</v>
+        <v>34.91</v>
       </c>
       <c r="F10" t="n">
-        <v>46</v>
+        <v>33.89</v>
       </c>
       <c r="G10" t="n">
-        <v>26.92</v>
+        <v>30.38</v>
       </c>
       <c r="H10" t="n">
-        <v>39.34</v>
+        <v>36.05</v>
       </c>
       <c r="I10" t="n">
-        <v>11.08</v>
+        <v>20.51</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.73</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.51</v>
+        <v>24.84</v>
       </c>
       <c r="C11" t="n">
-        <v>29.21</v>
+        <v>41.89</v>
       </c>
       <c r="D11" t="n">
-        <v>49.98</v>
+        <v>44.02</v>
       </c>
       <c r="E11" t="n">
-        <v>19.85</v>
+        <v>34.34</v>
       </c>
       <c r="F11" t="n">
-        <v>51.73</v>
+        <v>42.35</v>
       </c>
       <c r="G11" t="n">
-        <v>32.65</v>
+        <v>35.08</v>
       </c>
       <c r="H11" t="n">
-        <v>45.07</v>
+        <v>43.71</v>
       </c>
       <c r="I11" t="n">
-        <v>16.81</v>
+        <v>23.66</v>
       </c>
       <c r="J11" t="n">
-        <v>5.73</v>
+        <v>9.08</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.135257923052359</v>
+        <v>-7.299608443880306</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.135204287282146</v>
+        <v>-11.53611869524152</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-11.45425194851562</v>
+        <v>13.53536427909537</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.45431553159081</v>
+        <v>19.7077505255769</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-26.14020962007428</v>
+        <v>-20.66238599816175</v>
       </c>
       <c r="C4" t="n">
-        <v>-26.14020164631075</v>
+        <v>3.436179213989652</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.835812695858421</v>
+        <v>21.08343337351141</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.835930900712436</v>
+        <v>11.67655001569416</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-27.3783150930879</v>
+        <v>-20.43947846676308</v>
       </c>
       <c r="C6" t="n">
-        <v>-27.37831757746478</v>
+        <v>0.8052927309213932</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-13.8877965634479</v>
+        <v>0.9418612933799342</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.88776082837244</v>
+        <v>9.925139165997184</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-22.66951095200407</v>
+        <v>-16.83283114479213</v>
       </c>
       <c r="C8" t="n">
-        <v>-22.66950616125557</v>
+        <v>7.642143621499165</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.688262053516275</v>
+        <v>8.177818916513854</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.6881833069802</v>
+        <v>0.4594369312093978</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.149353406392806</v>
+        <v>6.340853208212003</v>
       </c>
       <c r="C10" t="n">
-        <v>5.149360535436108</v>
+        <v>-19.9685995069519</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.198477824653963</v>
+        <v>15.15497298288469</v>
       </c>
       <c r="C11" t="n">
-        <v>9.198470954392826</v>
+        <v>-22.14777400269444</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001266002655029297</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001776218414306641</v>
+        <v>35.44</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3736133575439453</v>
+        <v>16.26</v>
       </c>
       <c r="E2" t="n">
-        <v>1.665659189224243</v>
+        <v>34.61</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07162880897521973</v>
+        <v>14.59</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08930182456970215</v>
+        <v>20.85</v>
       </c>
       <c r="H2" t="n">
-        <v>1.778637886047363</v>
+        <v>22.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>35.44</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.44</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35.44</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="K3" t="n">
+        <v>42.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35.44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="H5" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="J5" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="C6" t="n">
+        <v>35.44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="J6" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>43.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="J7" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>39.61</v>
+      </c>
+      <c r="K8" t="n">
+        <v>49.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="F9" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="H9" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>20.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="E10" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="F10" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>39.61</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="D11" t="n">
+        <v>44.61</v>
+      </c>
+      <c r="E11" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="F11" t="n">
+        <v>43.36</v>
+      </c>
+      <c r="G11" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="H11" t="n">
+        <v>49.61</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.2915296601929689</v>
       </c>
       <c r="C2" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5890736342042755</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.606888888888889</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2024403872147776</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001266002655029297</v>
+        <v>0.003372174593811251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.5541803997679974</v>
       </c>
       <c r="C3" t="n">
-        <v>14.085</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4825282631038025</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.34188888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1455855606677717</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001776218414306641</v>
+        <v>-0.06047156155833025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.2316492686217331</v>
       </c>
       <c r="C4" t="n">
-        <v>28.62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7472273567467653</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.397111111111112</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3110225253162712</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3736133575439453</v>
+        <v>-0.3789481019668543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.5324424142358761</v>
       </c>
       <c r="C5" t="n">
-        <v>42.18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9781871061560834</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.95577777777778</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4970046402285678</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.665659189224243</v>
+        <v>0.0671990915045042</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.2465689218661056</v>
       </c>
       <c r="C6" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7048903878583473</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.265777777777778</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1599975071128538</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07162880897521973</v>
+        <v>-0.3439287608594786</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.185387954426584</v>
       </c>
       <c r="C7" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.6639839034205232</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.680888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.15329066504404</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.08930182456970215</v>
+        <v>-0.1324758212183534</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.119977362227389</v>
       </c>
       <c r="C8" t="n">
-        <v>39.73</v>
+        <v>-0.5001399945414488</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.09170693707360439</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2636274644214326</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3408382901704881</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.42423295655229</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1390233932013355</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6865153735858334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J2" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="K2" t="n">
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35.11</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="I4" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="J4" t="n">
+        <v>51.28</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="K5" t="n">
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="I6" t="n">
+        <v>35.19</v>
+      </c>
+      <c r="J6" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="K6" t="n">
+        <v>50.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>28.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.42</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8944169293111212</v>
+        <v>6.82</v>
       </c>
       <c r="E8" t="n">
-        <v>9.077777777777779</v>
+        <v>20.49</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3151477998095874</v>
+        <v>6.49</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>15.42</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.778637886047363</v>
+        <v>28.72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>45.52</v>
+      </c>
+      <c r="K8" t="n">
+        <v>43.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="F9" t="n">
+        <v>35.19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="H9" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51.28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>45.52</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33.54</v>
+      </c>
+      <c r="D11" t="n">
+        <v>49.77</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="H11" t="n">
+        <v>43.93</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-4.815288678230445</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.134743189329519</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-15.34264603299418</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-15.58486151533471</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-28.85762264950965</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-24.88249011140056</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-8.220423097342728</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.4552238283405</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-27.11308621123141</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-27.67702188884782</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-11.89496890791513</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-11.95894159865635</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-22.19726474367937</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-23.43270812623731</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.425196689275392</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.601593512491087</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8.951747651185791</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.759114897090464</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.589012661864288</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.907730252435491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="J4" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="H5" t="n">
+        <v>37.16</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="K5" t="n">
+        <v>39.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E6" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="J6" t="n">
+        <v>33.62</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="F7" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="J7" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="K7" t="n">
+        <v>46.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>37.16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>44.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="H9" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>31.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="F10" t="n">
+        <v>33.62</v>
+      </c>
+      <c r="G10" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="H10" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41.58</v>
+      </c>
+      <c r="E11" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="F11" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="G11" t="n">
+        <v>46.01</v>
+      </c>
+      <c r="H11" t="n">
+        <v>44.68</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.06018674929624712</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1602591220071857</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2281357492173415</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.3506099804928369</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.4488635326656458</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06488062366677422</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3737383012087895</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.3456480860580528</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.449288738929725</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1231141824832019</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0006063338786768896</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.4205648926076504</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.4292738198661624</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.08358480409804386</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2025444332306986</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.1483690122367586</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2351359954149037</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.444795837229313</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3474520278050675</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5557270101065606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="I2" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="F3" t="n">
+        <v>39.97</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="H3" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36.44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>44.58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="H5" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="J5" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="K5" t="n">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>39.97</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>44.58</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="I6" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="J6" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="K6" t="n">
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="J7" t="n">
+        <v>33.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>37.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>38.63</v>
+      </c>
+      <c r="K8" t="n">
+        <v>45.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36.44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="F10" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="G10" t="n">
+        <v>33.88</v>
+      </c>
+      <c r="H10" t="n">
+        <v>38.63</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43.21</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>42.25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="H11" t="n">
+        <v>45.07</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.317092675432859</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.59471302400754</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-26.47435891281509</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-32.7993211543665</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>42.78010579515444</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.701734265824454</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-39.19339983637963</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-27.38697113195719</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42.63838313495518</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.876761278030211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.671517728026557</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-26.33017529963216</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>41.12569306110738</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-8.741976779300039</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-16.65644230462226</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.47982515077694</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-20.12740215896104</v>
+      </c>
+      <c r="C10" t="n">
+        <v>37.16266386291099</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-34.08118918189841</v>
+      </c>
+      <c r="C11" t="n">
+        <v>39.40239708525969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002596378326416016</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002548694610595703</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002648830413818359</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.067993640899658</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.911191940307617</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2962009906768799</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.418054103851318</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.480696439743042</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01373100280761719</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.007926702499389648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>45.83</v>
+        <v>15.8</v>
       </c>
       <c r="D2" t="n">
-        <v>19.3</v>
+        <v>24.51</v>
       </c>
       <c r="E2" t="n">
-        <v>24.26</v>
+        <v>29.6</v>
       </c>
       <c r="F2" t="n">
-        <v>19.03</v>
+        <v>21.3</v>
       </c>
       <c r="G2" t="n">
-        <v>22.91</v>
+        <v>21.27</v>
       </c>
       <c r="H2" t="n">
-        <v>22.82</v>
+        <v>20.75</v>
       </c>
       <c r="I2" t="n">
-        <v>27.85</v>
+        <v>19.66</v>
       </c>
       <c r="J2" t="n">
-        <v>15.9</v>
+        <v>9.08</v>
       </c>
       <c r="K2" t="n">
-        <v>18.89</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40.92</v>
+        <v>15.8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>42.1</v>
+        <v>25.55</v>
       </c>
       <c r="E3" t="n">
-        <v>20.07</v>
+        <v>13.97</v>
       </c>
       <c r="F3" t="n">
-        <v>43.7</v>
+        <v>23.47</v>
       </c>
       <c r="G3" t="n">
-        <v>16.53</v>
+        <v>5.47</v>
       </c>
       <c r="H3" t="n">
-        <v>21.65</v>
+        <v>19.64</v>
       </c>
       <c r="I3" t="n">
-        <v>17.69</v>
+        <v>7.38</v>
       </c>
       <c r="J3" t="n">
-        <v>40.24</v>
+        <v>17.87</v>
       </c>
       <c r="K3" t="n">
-        <v>35.25</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.22</v>
+        <v>24.51</v>
       </c>
       <c r="C4" t="n">
-        <v>36.73</v>
+        <v>25.55</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45.54</v>
+        <v>35.33</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3.29</v>
       </c>
       <c r="G4" t="n">
-        <v>18.91</v>
+        <v>28.16</v>
       </c>
       <c r="H4" t="n">
-        <v>8.31</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>28.7</v>
+        <v>20.72</v>
       </c>
       <c r="J4" t="n">
-        <v>48.33</v>
+        <v>33.29</v>
       </c>
       <c r="K4" t="n">
-        <v>48.33</v>
+        <v>29.73</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.82</v>
+        <v>29.6</v>
       </c>
       <c r="C5" t="n">
-        <v>9.43</v>
+        <v>13.97</v>
       </c>
       <c r="D5" t="n">
-        <v>45.51</v>
+        <v>35.33</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>41.7</v>
+        <v>34.18</v>
       </c>
       <c r="G5" t="n">
-        <v>9.48</v>
+        <v>8.66</v>
       </c>
       <c r="H5" t="n">
-        <v>45.11</v>
+        <v>29.45</v>
       </c>
       <c r="I5" t="n">
-        <v>24.31</v>
+        <v>14.81</v>
       </c>
       <c r="J5" t="n">
-        <v>33.1</v>
+        <v>29.7</v>
       </c>
       <c r="K5" t="n">
-        <v>28.81</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.62</v>
+        <v>21.3</v>
       </c>
       <c r="C6" t="n">
-        <v>34.58</v>
+        <v>23.47</v>
       </c>
       <c r="D6" t="n">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="E6" t="n">
-        <v>48.33</v>
+        <v>34.18</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.7</v>
+        <v>26.57</v>
       </c>
       <c r="H6" t="n">
-        <v>6.6</v>
+        <v>5.01</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91</v>
+        <v>19.39</v>
       </c>
       <c r="J6" t="n">
-        <v>37.05</v>
+        <v>30.14</v>
       </c>
       <c r="K6" t="n">
-        <v>48.33</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.86</v>
+        <v>21.27</v>
       </c>
       <c r="C7" t="n">
-        <v>22.93</v>
+        <v>5.47</v>
       </c>
       <c r="D7" t="n">
-        <v>21.84</v>
+        <v>28.16</v>
       </c>
       <c r="E7" t="n">
-        <v>13.18</v>
+        <v>8.66</v>
       </c>
       <c r="F7" t="n">
-        <v>25.5</v>
+        <v>26.57</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15.46</v>
+        <v>22.16</v>
       </c>
       <c r="I7" t="n">
-        <v>9.789999999999999</v>
+        <v>7.59</v>
       </c>
       <c r="J7" t="n">
-        <v>30.8</v>
+        <v>22.71</v>
       </c>
       <c r="K7" t="n">
-        <v>48.33</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.48</v>
+        <v>20.75</v>
       </c>
       <c r="C8" t="n">
-        <v>33.87</v>
+        <v>19.64</v>
       </c>
       <c r="D8" t="n">
-        <v>6.24</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>41.44</v>
+        <v>29.45</v>
       </c>
       <c r="F8" t="n">
-        <v>4.61</v>
+        <v>5.01</v>
       </c>
       <c r="G8" t="n">
-        <v>16.59</v>
+        <v>22.16</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>30.46</v>
+        <v>14.76</v>
       </c>
       <c r="J8" t="n">
-        <v>25.02</v>
+        <v>29.02</v>
       </c>
       <c r="K8" t="n">
-        <v>48.33</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.62</v>
+        <v>19.66</v>
       </c>
       <c r="C9" t="n">
-        <v>15.58</v>
+        <v>7.38</v>
       </c>
       <c r="D9" t="n">
-        <v>23.02</v>
+        <v>20.72</v>
       </c>
       <c r="E9" t="n">
-        <v>18.33</v>
+        <v>14.81</v>
       </c>
       <c r="F9" t="n">
-        <v>24.58</v>
+        <v>19.39</v>
       </c>
       <c r="G9" t="n">
-        <v>10.67</v>
+        <v>7.59</v>
       </c>
       <c r="H9" t="n">
-        <v>25.12</v>
+        <v>14.76</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>18.1</v>
+        <v>24.08</v>
       </c>
       <c r="K9" t="n">
-        <v>15.74</v>
+        <v>30.99</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.07</v>
+        <v>9.08</v>
       </c>
       <c r="C10" t="n">
-        <v>45.58</v>
+        <v>17.87</v>
       </c>
       <c r="D10" t="n">
-        <v>27.93</v>
+        <v>33.29</v>
       </c>
       <c r="E10" t="n">
-        <v>39.7</v>
+        <v>29.7</v>
       </c>
       <c r="F10" t="n">
-        <v>28.95</v>
+        <v>30.14</v>
       </c>
       <c r="G10" t="n">
-        <v>26.7</v>
+        <v>22.71</v>
       </c>
       <c r="H10" t="n">
-        <v>48.33</v>
+        <v>29.02</v>
       </c>
       <c r="I10" t="n">
-        <v>18.2</v>
+        <v>24.08</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.86</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39.29</v>
+        <v>11.84</v>
       </c>
       <c r="C11" t="n">
-        <v>35.13</v>
+        <v>27.64</v>
       </c>
       <c r="D11" t="n">
-        <v>33.98</v>
+        <v>29.73</v>
       </c>
       <c r="E11" t="n">
-        <v>48.33</v>
+        <v>41.4</v>
       </c>
       <c r="F11" t="n">
-        <v>29.67</v>
+        <v>26.52</v>
       </c>
       <c r="G11" t="n">
-        <v>36.73</v>
+        <v>33.1</v>
       </c>
       <c r="H11" t="n">
-        <v>46.45</v>
+        <v>28.06</v>
       </c>
       <c r="I11" t="n">
-        <v>30.07</v>
+        <v>30.99</v>
       </c>
       <c r="J11" t="n">
-        <v>11.02</v>
+        <v>15.29</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17.6772243689215</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.055148627746272</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.034699285658115</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.879810551831487</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.976190339833073</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23.67085755349397</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-8.515932674422631</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-9.737707977512297</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.423903128957325</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.47297331187862</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.986817675861042</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-4.045379409018498</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.077505758366916</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17.74023639094553</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.973965259401306</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.547040880315817</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20.71659339919675</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-4.499810453183423</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28.60629860252372</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.598661037974503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5890736342042755</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.606888888888889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2024403872147776</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001266002655029297</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14.085</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4825282631038025</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.34188888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1455855606677717</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001776218414306641</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7472273567467653</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.397111111111112</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3110225253162712</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3736133575439453</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42.18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9781871061560834</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.95577777777778</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4970046402285678</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.665659189224243</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7048903878583473</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.265777777777778</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1599975071128538</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07162880897521973</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6639839034205232</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.680888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.15329066504404</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.08930182456970215</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8944169293111212</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.077777777777779</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3151477998095874</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.778637886047363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>43.375</v>
+        <v>45.83</v>
       </c>
       <c r="D2" t="n">
-        <v>23.76</v>
+        <v>19.3</v>
       </c>
       <c r="E2" t="n">
-        <v>28.04</v>
+        <v>24.26</v>
       </c>
       <c r="F2" t="n">
-        <v>21.825</v>
+        <v>19.03</v>
       </c>
       <c r="G2" t="n">
-        <v>21.885</v>
+        <v>22.91</v>
       </c>
       <c r="H2" t="n">
-        <v>18.65</v>
+        <v>22.82</v>
       </c>
       <c r="I2" t="n">
-        <v>23.735</v>
+        <v>27.85</v>
       </c>
       <c r="J2" t="n">
-        <v>18.985</v>
+        <v>15.9</v>
       </c>
       <c r="K2" t="n">
-        <v>29.09</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>43.375</v>
+        <v>40.92</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.415</v>
+        <v>42.1</v>
       </c>
       <c r="E3" t="n">
-        <v>14.75</v>
+        <v>20.07</v>
       </c>
       <c r="F3" t="n">
-        <v>39.14</v>
+        <v>43.7</v>
       </c>
       <c r="G3" t="n">
-        <v>19.73</v>
+        <v>16.53</v>
       </c>
       <c r="H3" t="n">
-        <v>27.76</v>
+        <v>21.65</v>
       </c>
       <c r="I3" t="n">
-        <v>16.635</v>
+        <v>17.69</v>
       </c>
       <c r="J3" t="n">
-        <v>42.91</v>
+        <v>40.24</v>
       </c>
       <c r="K3" t="n">
-        <v>35.19</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.76</v>
+        <v>28.22</v>
       </c>
       <c r="C4" t="n">
-        <v>39.415</v>
+        <v>36.73</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45.525</v>
+        <v>45.54</v>
       </c>
       <c r="F4" t="n">
-        <v>3.605</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>20.375</v>
+        <v>18.91</v>
       </c>
       <c r="H4" t="n">
-        <v>7.275</v>
+        <v>8.31</v>
       </c>
       <c r="I4" t="n">
-        <v>25.86</v>
+        <v>28.7</v>
       </c>
       <c r="J4" t="n">
-        <v>38.13</v>
+        <v>48.33</v>
       </c>
       <c r="K4" t="n">
-        <v>41.155</v>
+        <v>48.33</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.04</v>
+        <v>31.82</v>
       </c>
       <c r="C5" t="n">
-        <v>14.75</v>
+        <v>9.43</v>
       </c>
       <c r="D5" t="n">
-        <v>45.525</v>
+        <v>45.51</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>45.015</v>
+        <v>41.7</v>
       </c>
       <c r="G5" t="n">
-        <v>11.33</v>
+        <v>9.48</v>
       </c>
       <c r="H5" t="n">
-        <v>43.275</v>
+        <v>45.11</v>
       </c>
       <c r="I5" t="n">
-        <v>21.32</v>
+        <v>24.31</v>
       </c>
       <c r="J5" t="n">
-        <v>36.40000000000001</v>
+        <v>33.1</v>
       </c>
       <c r="K5" t="n">
-        <v>38.57</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.825</v>
+        <v>24.62</v>
       </c>
       <c r="C6" t="n">
-        <v>39.14</v>
+        <v>34.58</v>
       </c>
       <c r="D6" t="n">
-        <v>3.605</v>
+        <v>3.21</v>
       </c>
       <c r="E6" t="n">
-        <v>45.015</v>
+        <v>48.33</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>23.1</v>
+        <v>20.7</v>
       </c>
       <c r="H6" t="n">
-        <v>5.605</v>
+        <v>6.6</v>
       </c>
       <c r="I6" t="n">
-        <v>30.745</v>
+        <v>36.91</v>
       </c>
       <c r="J6" t="n">
-        <v>33</v>
+        <v>37.05</v>
       </c>
       <c r="K6" t="n">
-        <v>39</v>
+        <v>48.33</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.885</v>
+        <v>20.86</v>
       </c>
       <c r="C7" t="n">
-        <v>19.73</v>
+        <v>22.93</v>
       </c>
       <c r="D7" t="n">
-        <v>20.375</v>
+        <v>21.84</v>
       </c>
       <c r="E7" t="n">
-        <v>11.33</v>
+        <v>13.18</v>
       </c>
       <c r="F7" t="n">
-        <v>23.1</v>
+        <v>25.5</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.025</v>
+        <v>15.46</v>
       </c>
       <c r="I7" t="n">
-        <v>10.23</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>28.75</v>
+        <v>30.8</v>
       </c>
       <c r="K7" t="n">
-        <v>42.53</v>
+        <v>48.33</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.65</v>
+        <v>14.48</v>
       </c>
       <c r="C8" t="n">
-        <v>27.76</v>
+        <v>33.87</v>
       </c>
       <c r="D8" t="n">
-        <v>7.275</v>
+        <v>6.24</v>
       </c>
       <c r="E8" t="n">
-        <v>43.275</v>
+        <v>41.44</v>
       </c>
       <c r="F8" t="n">
-        <v>5.605</v>
+        <v>4.61</v>
       </c>
       <c r="G8" t="n">
-        <v>16.025</v>
+        <v>16.59</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.79</v>
+        <v>30.46</v>
       </c>
       <c r="J8" t="n">
-        <v>36.675</v>
+        <v>25.02</v>
       </c>
       <c r="K8" t="n">
-        <v>47.39</v>
+        <v>48.33</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.735</v>
+        <v>19.62</v>
       </c>
       <c r="C9" t="n">
-        <v>16.635</v>
+        <v>15.58</v>
       </c>
       <c r="D9" t="n">
-        <v>25.86</v>
+        <v>23.02</v>
       </c>
       <c r="E9" t="n">
-        <v>21.32</v>
+        <v>18.33</v>
       </c>
       <c r="F9" t="n">
-        <v>30.745</v>
+        <v>24.58</v>
       </c>
       <c r="G9" t="n">
-        <v>10.23</v>
+        <v>10.67</v>
       </c>
       <c r="H9" t="n">
-        <v>27.79</v>
+        <v>25.12</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>18.15</v>
+        <v>18.1</v>
       </c>
       <c r="K9" t="n">
-        <v>22.905</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.985</v>
+        <v>22.07</v>
       </c>
       <c r="C10" t="n">
-        <v>42.91</v>
+        <v>45.58</v>
       </c>
       <c r="D10" t="n">
-        <v>38.13</v>
+        <v>27.93</v>
       </c>
       <c r="E10" t="n">
-        <v>36.40000000000001</v>
+        <v>39.7</v>
       </c>
       <c r="F10" t="n">
-        <v>33</v>
+        <v>28.95</v>
       </c>
       <c r="G10" t="n">
-        <v>28.75</v>
+        <v>26.7</v>
       </c>
       <c r="H10" t="n">
-        <v>36.675</v>
+        <v>48.33</v>
       </c>
       <c r="I10" t="n">
-        <v>18.15</v>
+        <v>18.2</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>9.44</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.09</v>
+        <v>39.29</v>
       </c>
       <c r="C11" t="n">
-        <v>35.19</v>
+        <v>35.13</v>
       </c>
       <c r="D11" t="n">
-        <v>41.155</v>
+        <v>33.98</v>
       </c>
       <c r="E11" t="n">
-        <v>38.57</v>
+        <v>48.33</v>
       </c>
       <c r="F11" t="n">
-        <v>39</v>
+        <v>29.67</v>
       </c>
       <c r="G11" t="n">
-        <v>42.53</v>
+        <v>36.73</v>
       </c>
       <c r="H11" t="n">
-        <v>47.39</v>
+        <v>46.45</v>
       </c>
       <c r="I11" t="n">
-        <v>22.905</v>
+        <v>30.07</v>
       </c>
       <c r="J11" t="n">
-        <v>9.44</v>
+        <v>11.02</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="E2" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11.84</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="F3" t="n">
-        <v>23.47</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="H3" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17.87</v>
-      </c>
-      <c r="K3" t="n">
-        <v>27.64</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>35.33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="J4" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29.73</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>34.18</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="H5" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="J5" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>23.47</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E6" t="n">
-        <v>34.18</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>26.57</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="K6" t="n">
-        <v>26.52</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="D7" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="F7" t="n">
-        <v>26.57</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="J7" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="K7" t="n">
-        <v>33.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="G8" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="J8" t="n">
-        <v>29.02</v>
-      </c>
-      <c r="K8" t="n">
-        <v>28.06</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="F9" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>24.08</v>
-      </c>
-      <c r="K9" t="n">
-        <v>30.99</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17.87</v>
-      </c>
-      <c r="D10" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="E10" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="H10" t="n">
-        <v>29.02</v>
-      </c>
-      <c r="I10" t="n">
-        <v>24.08</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>15.29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="C11" t="n">
-        <v>27.64</v>
-      </c>
-      <c r="D11" t="n">
-        <v>29.73</v>
-      </c>
-      <c r="E11" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>26.52</v>
-      </c>
-      <c r="G11" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="I11" t="n">
-        <v>30.99</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>17.6772243689215</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.055148627746272</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3.034699285658115</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-1.879810551831487</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.976190339833073</v>
-      </c>
-      <c r="C4" t="n">
-        <v>23.67085755349397</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-8.515932674422631</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-9.737707977512297</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5.423903128957325</v>
-      </c>
-      <c r="C6" t="n">
-        <v>21.47297331187862</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-1.986817675861042</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-4.045379409018498</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.077505758366916</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17.74023639094553</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-1.973965259401306</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.547040880315817</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20.71659339919675</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-4.499810453183423</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>28.60629860252372</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.598661037974503</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.24</v>
+        <v>43.3</v>
       </c>
       <c r="D2" t="n">
-        <v>15.3</v>
+        <v>23.34</v>
       </c>
       <c r="E2" t="n">
-        <v>7.65</v>
+        <v>27.78</v>
       </c>
       <c r="F2" t="n">
-        <v>19.44</v>
+        <v>21.64</v>
       </c>
       <c r="G2" t="n">
-        <v>3.71</v>
+        <v>21.86</v>
       </c>
       <c r="H2" t="n">
-        <v>15.05</v>
+        <v>18.18</v>
       </c>
       <c r="I2" t="n">
-        <v>8.09</v>
+        <v>23.38</v>
       </c>
       <c r="J2" t="n">
-        <v>12.74</v>
+        <v>18.73</v>
       </c>
       <c r="K2" t="n">
-        <v>13.27</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.24</v>
+        <v>43.3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.06</v>
+        <v>39.32</v>
       </c>
       <c r="E3" t="n">
-        <v>9.880000000000001</v>
+        <v>13.75</v>
       </c>
       <c r="F3" t="n">
-        <v>17.21</v>
+        <v>38.87</v>
       </c>
       <c r="G3" t="n">
-        <v>1.47</v>
+        <v>19.47</v>
       </c>
       <c r="H3" t="n">
-        <v>12.81</v>
+        <v>27.08</v>
       </c>
       <c r="I3" t="n">
-        <v>10.33</v>
+        <v>16.6</v>
       </c>
       <c r="J3" t="n">
-        <v>14.97</v>
+        <v>42.83</v>
       </c>
       <c r="K3" t="n">
-        <v>15.51</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.3</v>
+        <v>23.34</v>
       </c>
       <c r="C4" t="n">
-        <v>13.06</v>
+        <v>39.32</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.95</v>
+        <v>45.52</v>
       </c>
       <c r="F4" t="n">
-        <v>4.14</v>
+        <v>3.58</v>
       </c>
       <c r="G4" t="n">
-        <v>11.59</v>
+        <v>20.32</v>
       </c>
       <c r="H4" t="n">
-        <v>0.25</v>
+        <v>7.2</v>
       </c>
       <c r="I4" t="n">
-        <v>23.39</v>
+        <v>25.7</v>
       </c>
       <c r="J4" t="n">
-        <v>28.03</v>
+        <v>36.74</v>
       </c>
       <c r="K4" t="n">
-        <v>28.57</v>
+        <v>40.53</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.65</v>
+        <v>27.78</v>
       </c>
       <c r="C5" t="n">
-        <v>9.880000000000001</v>
+        <v>13.75</v>
       </c>
       <c r="D5" t="n">
-        <v>22.95</v>
+        <v>45.52</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.09</v>
+        <v>44.9</v>
       </c>
       <c r="G5" t="n">
-        <v>11.36</v>
+        <v>11.18</v>
       </c>
       <c r="H5" t="n">
-        <v>22.69</v>
+        <v>43.24</v>
       </c>
       <c r="I5" t="n">
-        <v>0.45</v>
+        <v>21.11</v>
       </c>
       <c r="J5" t="n">
-        <v>5.09</v>
+        <v>36.25</v>
       </c>
       <c r="K5" t="n">
-        <v>5.63</v>
+        <v>37.32</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.44</v>
+        <v>21.64</v>
       </c>
       <c r="C6" t="n">
-        <v>17.21</v>
+        <v>38.87</v>
       </c>
       <c r="D6" t="n">
-        <v>4.14</v>
+        <v>3.58</v>
       </c>
       <c r="E6" t="n">
-        <v>27.09</v>
+        <v>44.9</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.73</v>
+        <v>22.97</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>5.51</v>
       </c>
       <c r="I6" t="n">
-        <v>27.53</v>
+        <v>30.12</v>
       </c>
       <c r="J6" t="n">
-        <v>32.18</v>
+        <v>32.75</v>
       </c>
       <c r="K6" t="n">
-        <v>32.72</v>
+        <v>37.87</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.71</v>
+        <v>21.86</v>
       </c>
       <c r="C7" t="n">
-        <v>1.47</v>
+        <v>19.47</v>
       </c>
       <c r="D7" t="n">
-        <v>11.59</v>
+        <v>20.32</v>
       </c>
       <c r="E7" t="n">
-        <v>11.36</v>
+        <v>11.18</v>
       </c>
       <c r="F7" t="n">
-        <v>15.73</v>
+        <v>22.97</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>11.34</v>
+        <v>16.01</v>
       </c>
       <c r="I7" t="n">
-        <v>11.8</v>
+        <v>10.22</v>
       </c>
       <c r="J7" t="n">
-        <v>16.45</v>
+        <v>28.68</v>
       </c>
       <c r="K7" t="n">
-        <v>16.98</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.05</v>
+        <v>18.18</v>
       </c>
       <c r="C8" t="n">
-        <v>12.81</v>
+        <v>27.08</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>7.2</v>
       </c>
       <c r="E8" t="n">
-        <v>22.69</v>
+        <v>43.24</v>
       </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>5.51</v>
       </c>
       <c r="G8" t="n">
-        <v>11.34</v>
+        <v>16.01</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>23.14</v>
+        <v>27.66</v>
       </c>
       <c r="J8" t="n">
-        <v>27.78</v>
+        <v>34.77</v>
       </c>
       <c r="K8" t="n">
-        <v>28.32</v>
+        <v>47.38</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.09</v>
+        <v>23.38</v>
       </c>
       <c r="C9" t="n">
-        <v>10.33</v>
+        <v>16.6</v>
       </c>
       <c r="D9" t="n">
-        <v>23.39</v>
+        <v>25.7</v>
       </c>
       <c r="E9" t="n">
-        <v>0.45</v>
+        <v>21.11</v>
       </c>
       <c r="F9" t="n">
-        <v>27.53</v>
+        <v>30.12</v>
       </c>
       <c r="G9" t="n">
-        <v>11.8</v>
+        <v>10.22</v>
       </c>
       <c r="H9" t="n">
-        <v>23.14</v>
+        <v>27.66</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.64</v>
+        <v>18.15</v>
       </c>
       <c r="K9" t="n">
-        <v>5.18</v>
+        <v>21.76</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.74</v>
+        <v>18.73</v>
       </c>
       <c r="C10" t="n">
-        <v>14.97</v>
+        <v>42.83</v>
       </c>
       <c r="D10" t="n">
-        <v>28.03</v>
+        <v>36.74</v>
       </c>
       <c r="E10" t="n">
-        <v>5.09</v>
+        <v>36.25</v>
       </c>
       <c r="F10" t="n">
-        <v>32.18</v>
+        <v>32.75</v>
       </c>
       <c r="G10" t="n">
-        <v>16.45</v>
+        <v>28.68</v>
       </c>
       <c r="H10" t="n">
-        <v>27.78</v>
+        <v>34.77</v>
       </c>
       <c r="I10" t="n">
-        <v>4.64</v>
+        <v>18.15</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.54</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.27</v>
+        <v>27.24</v>
       </c>
       <c r="C11" t="n">
-        <v>15.51</v>
+        <v>35.19</v>
       </c>
       <c r="D11" t="n">
-        <v>28.57</v>
+        <v>40.53</v>
       </c>
       <c r="E11" t="n">
-        <v>5.63</v>
+        <v>37.32</v>
       </c>
       <c r="F11" t="n">
-        <v>32.72</v>
+        <v>37.87</v>
       </c>
       <c r="G11" t="n">
-        <v>16.98</v>
+        <v>42.13</v>
       </c>
       <c r="H11" t="n">
-        <v>28.32</v>
+        <v>47.38</v>
       </c>
       <c r="I11" t="n">
-        <v>5.18</v>
+        <v>21.76</v>
       </c>
       <c r="J11" t="n">
-        <v>0.54</v>
+        <v>9.31</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
